--- a/設計書/01_基本設計（外部設計）/02_システム構造設計/システム構成図.xlsx
+++ b/設計書/01_基本設計（外部設計）/02_システム構造設計/システム構成図.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="1350" windowWidth="23715" windowHeight="9465" tabRatio="656" activeTab="1"/>
+    <workbookView xWindow="210" yWindow="1350" windowWidth="23715" windowHeight="9465" tabRatio="656"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -171,10 +171,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>システムアーキテクチャ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>【システム構成図】</t>
     <rPh sb="5" eb="7">
       <t>コウセイ</t>
@@ -183,6 +179,10 @@
       <t>ズ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>システム構成図</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -762,6 +762,144 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -771,33 +909,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,119 +945,8 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1302,7 +1302,7 @@
   </sheetPr>
   <dimension ref="A1:AZ28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4:AL4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1314,201 +1314,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="str">
+      <c r="A1" s="72" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="55" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="71" t="str">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="76" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="55" t="s">
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55" t="s">
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55" t="s">
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55" t="s">
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="56"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="62"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="57" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="58" t="str">
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="64" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="59">
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="65">
         <v>73050</v>
       </c>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="61" t="s">
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="65"/>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="63"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="68"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="62" t="str">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="73" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="62" t="str">
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40" t="str">
         <f>設定情報!$C$5</f>
-        <v>システムアーキテクチャ</v>
+        <v>システム構成図</v>
       </c>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="60"/>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="64"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="69"/>
     </row>
     <row r="4" spans="1:52" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
@@ -1676,1098 +1676,1098 @@
     </row>
     <row r="7" spans="1:52" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="74" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="74" t="s">
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="75"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="75"/>
-      <c r="AM7" s="75"/>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="75"/>
-      <c r="AP7" s="75"/>
-      <c r="AQ7" s="75"/>
-      <c r="AR7" s="75"/>
-      <c r="AS7" s="75"/>
-      <c r="AT7" s="75"/>
-      <c r="AU7" s="75"/>
-      <c r="AV7" s="75"/>
-      <c r="AW7" s="75"/>
-      <c r="AX7" s="75"/>
-      <c r="AY7" s="76"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="42"/>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="42"/>
+      <c r="AX7" s="42"/>
+      <c r="AY7" s="43"/>
       <c r="AZ7" s="14"/>
     </row>
     <row r="8" spans="1:52" s="11" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="88"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="88"/>
-      <c r="AI8" s="88"/>
-      <c r="AJ8" s="88"/>
-      <c r="AK8" s="88"/>
-      <c r="AL8" s="88"/>
-      <c r="AM8" s="88"/>
-      <c r="AN8" s="88"/>
-      <c r="AO8" s="88"/>
-      <c r="AP8" s="88"/>
-      <c r="AQ8" s="88"/>
-      <c r="AR8" s="88"/>
-      <c r="AS8" s="88"/>
-      <c r="AT8" s="88"/>
-      <c r="AU8" s="88"/>
-      <c r="AV8" s="88"/>
-      <c r="AW8" s="88"/>
-      <c r="AX8" s="88"/>
-      <c r="AY8" s="89"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="57"/>
+      <c r="AL8" s="57"/>
+      <c r="AM8" s="57"/>
+      <c r="AN8" s="57"/>
+      <c r="AO8" s="57"/>
+      <c r="AP8" s="57"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="57"/>
+      <c r="AV8" s="57"/>
+      <c r="AW8" s="57"/>
+      <c r="AX8" s="57"/>
+      <c r="AY8" s="58"/>
       <c r="AZ8" s="21"/>
     </row>
     <row r="9" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
-      <c r="B9" s="37">
+      <c r="B9" s="32">
         <v>1</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40">
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35">
         <v>73050</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="80" t="s">
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="34" t="s">
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35"/>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35"/>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35"/>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="35"/>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="35"/>
-      <c r="AY9" s="36"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="48"/>
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="48"/>
+      <c r="AM9" s="48"/>
+      <c r="AN9" s="48"/>
+      <c r="AO9" s="48"/>
+      <c r="AP9" s="48"/>
+      <c r="AQ9" s="48"/>
+      <c r="AR9" s="48"/>
+      <c r="AS9" s="48"/>
+      <c r="AT9" s="48"/>
+      <c r="AU9" s="48"/>
+      <c r="AV9" s="48"/>
+      <c r="AW9" s="48"/>
+      <c r="AX9" s="48"/>
+      <c r="AY9" s="49"/>
       <c r="AZ9" s="21"/>
     </row>
     <row r="10" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="35"/>
-      <c r="AI10" s="35"/>
-      <c r="AJ10" s="35"/>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="35"/>
-      <c r="AN10" s="35"/>
-      <c r="AO10" s="35"/>
-      <c r="AP10" s="35"/>
-      <c r="AQ10" s="35"/>
-      <c r="AR10" s="35"/>
-      <c r="AS10" s="35"/>
-      <c r="AT10" s="35"/>
-      <c r="AU10" s="35"/>
-      <c r="AV10" s="35"/>
-      <c r="AW10" s="35"/>
-      <c r="AX10" s="35"/>
-      <c r="AY10" s="36"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="48"/>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="48"/>
+      <c r="AP10" s="48"/>
+      <c r="AQ10" s="48"/>
+      <c r="AR10" s="48"/>
+      <c r="AS10" s="48"/>
+      <c r="AT10" s="48"/>
+      <c r="AU10" s="48"/>
+      <c r="AV10" s="48"/>
+      <c r="AW10" s="48"/>
+      <c r="AX10" s="48"/>
+      <c r="AY10" s="49"/>
       <c r="AZ10" s="21"/>
     </row>
     <row r="11" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="35"/>
-      <c r="AQ11" s="35"/>
-      <c r="AR11" s="35"/>
-      <c r="AS11" s="35"/>
-      <c r="AT11" s="35"/>
-      <c r="AU11" s="35"/>
-      <c r="AV11" s="35"/>
-      <c r="AW11" s="35"/>
-      <c r="AX11" s="35"/>
-      <c r="AY11" s="36"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="48"/>
+      <c r="AK11" s="48"/>
+      <c r="AL11" s="48"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="48"/>
+      <c r="AO11" s="48"/>
+      <c r="AP11" s="48"/>
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="48"/>
+      <c r="AS11" s="48"/>
+      <c r="AT11" s="48"/>
+      <c r="AU11" s="48"/>
+      <c r="AV11" s="48"/>
+      <c r="AW11" s="48"/>
+      <c r="AX11" s="48"/>
+      <c r="AY11" s="49"/>
       <c r="AZ11" s="21"/>
     </row>
     <row r="12" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="35"/>
-      <c r="AI12" s="35"/>
-      <c r="AJ12" s="35"/>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="35"/>
-      <c r="AO12" s="35"/>
-      <c r="AP12" s="35"/>
-      <c r="AQ12" s="35"/>
-      <c r="AR12" s="35"/>
-      <c r="AS12" s="35"/>
-      <c r="AT12" s="35"/>
-      <c r="AU12" s="35"/>
-      <c r="AV12" s="35"/>
-      <c r="AW12" s="35"/>
-      <c r="AX12" s="35"/>
-      <c r="AY12" s="36"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="48"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="48"/>
+      <c r="AK12" s="48"/>
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="48"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="48"/>
+      <c r="AP12" s="48"/>
+      <c r="AQ12" s="48"/>
+      <c r="AR12" s="48"/>
+      <c r="AS12" s="48"/>
+      <c r="AT12" s="48"/>
+      <c r="AU12" s="48"/>
+      <c r="AV12" s="48"/>
+      <c r="AW12" s="48"/>
+      <c r="AX12" s="48"/>
+      <c r="AY12" s="49"/>
       <c r="AZ12" s="21"/>
     </row>
     <row r="13" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="35"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="35"/>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="35"/>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="35"/>
-      <c r="AO13" s="35"/>
-      <c r="AP13" s="35"/>
-      <c r="AQ13" s="35"/>
-      <c r="AR13" s="35"/>
-      <c r="AS13" s="35"/>
-      <c r="AT13" s="35"/>
-      <c r="AU13" s="35"/>
-      <c r="AV13" s="35"/>
-      <c r="AW13" s="35"/>
-      <c r="AX13" s="35"/>
-      <c r="AY13" s="36"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="48"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="48"/>
+      <c r="AO13" s="48"/>
+      <c r="AP13" s="48"/>
+      <c r="AQ13" s="48"/>
+      <c r="AR13" s="48"/>
+      <c r="AS13" s="48"/>
+      <c r="AT13" s="48"/>
+      <c r="AU13" s="48"/>
+      <c r="AV13" s="48"/>
+      <c r="AW13" s="48"/>
+      <c r="AX13" s="48"/>
+      <c r="AY13" s="49"/>
       <c r="AZ13" s="21"/>
     </row>
     <row r="14" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="35"/>
-      <c r="AQ14" s="35"/>
-      <c r="AR14" s="35"/>
-      <c r="AS14" s="35"/>
-      <c r="AT14" s="35"/>
-      <c r="AU14" s="35"/>
-      <c r="AV14" s="35"/>
-      <c r="AW14" s="35"/>
-      <c r="AX14" s="35"/>
-      <c r="AY14" s="36"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="48"/>
+      <c r="AP14" s="48"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="48"/>
+      <c r="AS14" s="48"/>
+      <c r="AT14" s="48"/>
+      <c r="AU14" s="48"/>
+      <c r="AV14" s="48"/>
+      <c r="AW14" s="48"/>
+      <c r="AX14" s="48"/>
+      <c r="AY14" s="49"/>
       <c r="AZ14" s="21"/>
     </row>
     <row r="15" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="35"/>
-      <c r="AJ15" s="35"/>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="35"/>
-      <c r="AO15" s="35"/>
-      <c r="AP15" s="35"/>
-      <c r="AQ15" s="35"/>
-      <c r="AR15" s="35"/>
-      <c r="AS15" s="35"/>
-      <c r="AT15" s="35"/>
-      <c r="AU15" s="35"/>
-      <c r="AV15" s="35"/>
-      <c r="AW15" s="35"/>
-      <c r="AX15" s="35"/>
-      <c r="AY15" s="36"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="48"/>
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="48"/>
+      <c r="AO15" s="48"/>
+      <c r="AP15" s="48"/>
+      <c r="AQ15" s="48"/>
+      <c r="AR15" s="48"/>
+      <c r="AS15" s="48"/>
+      <c r="AT15" s="48"/>
+      <c r="AU15" s="48"/>
+      <c r="AV15" s="48"/>
+      <c r="AW15" s="48"/>
+      <c r="AX15" s="48"/>
+      <c r="AY15" s="49"/>
       <c r="AZ15" s="21"/>
     </row>
     <row r="16" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="35"/>
-      <c r="AJ16" s="35"/>
-      <c r="AK16" s="35"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="35"/>
-      <c r="AO16" s="35"/>
-      <c r="AP16" s="35"/>
-      <c r="AQ16" s="35"/>
-      <c r="AR16" s="35"/>
-      <c r="AS16" s="35"/>
-      <c r="AT16" s="35"/>
-      <c r="AU16" s="35"/>
-      <c r="AV16" s="35"/>
-      <c r="AW16" s="35"/>
-      <c r="AX16" s="35"/>
-      <c r="AY16" s="36"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="48"/>
+      <c r="AQ16" s="48"/>
+      <c r="AR16" s="48"/>
+      <c r="AS16" s="48"/>
+      <c r="AT16" s="48"/>
+      <c r="AU16" s="48"/>
+      <c r="AV16" s="48"/>
+      <c r="AW16" s="48"/>
+      <c r="AX16" s="48"/>
+      <c r="AY16" s="49"/>
       <c r="AZ16" s="21"/>
     </row>
     <row r="17" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="35"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="35"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="35"/>
-      <c r="AQ17" s="35"/>
-      <c r="AR17" s="35"/>
-      <c r="AS17" s="35"/>
-      <c r="AT17" s="35"/>
-      <c r="AU17" s="35"/>
-      <c r="AV17" s="35"/>
-      <c r="AW17" s="35"/>
-      <c r="AX17" s="35"/>
-      <c r="AY17" s="36"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="48"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="48"/>
+      <c r="AM17" s="48"/>
+      <c r="AN17" s="48"/>
+      <c r="AO17" s="48"/>
+      <c r="AP17" s="48"/>
+      <c r="AQ17" s="48"/>
+      <c r="AR17" s="48"/>
+      <c r="AS17" s="48"/>
+      <c r="AT17" s="48"/>
+      <c r="AU17" s="48"/>
+      <c r="AV17" s="48"/>
+      <c r="AW17" s="48"/>
+      <c r="AX17" s="48"/>
+      <c r="AY17" s="49"/>
       <c r="AZ17" s="21"/>
     </row>
     <row r="18" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="35"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="35"/>
-      <c r="AQ18" s="35"/>
-      <c r="AR18" s="35"/>
-      <c r="AS18" s="35"/>
-      <c r="AT18" s="35"/>
-      <c r="AU18" s="35"/>
-      <c r="AV18" s="35"/>
-      <c r="AW18" s="35"/>
-      <c r="AX18" s="35"/>
-      <c r="AY18" s="36"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="48"/>
+      <c r="AO18" s="48"/>
+      <c r="AP18" s="48"/>
+      <c r="AQ18" s="48"/>
+      <c r="AR18" s="48"/>
+      <c r="AS18" s="48"/>
+      <c r="AT18" s="48"/>
+      <c r="AU18" s="48"/>
+      <c r="AV18" s="48"/>
+      <c r="AW18" s="48"/>
+      <c r="AX18" s="48"/>
+      <c r="AY18" s="49"/>
       <c r="AZ18" s="21"/>
     </row>
     <row r="19" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="35"/>
-      <c r="AJ19" s="35"/>
-      <c r="AK19" s="35"/>
-      <c r="AL19" s="35"/>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="35"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="35"/>
-      <c r="AQ19" s="35"/>
-      <c r="AR19" s="35"/>
-      <c r="AS19" s="35"/>
-      <c r="AT19" s="35"/>
-      <c r="AU19" s="35"/>
-      <c r="AV19" s="35"/>
-      <c r="AW19" s="35"/>
-      <c r="AX19" s="35"/>
-      <c r="AY19" s="36"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="48"/>
+      <c r="AJ19" s="48"/>
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="48"/>
+      <c r="AO19" s="48"/>
+      <c r="AP19" s="48"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="48"/>
+      <c r="AS19" s="48"/>
+      <c r="AT19" s="48"/>
+      <c r="AU19" s="48"/>
+      <c r="AV19" s="48"/>
+      <c r="AW19" s="48"/>
+      <c r="AX19" s="48"/>
+      <c r="AY19" s="49"/>
       <c r="AZ19" s="21"/>
     </row>
     <row r="20" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="35"/>
-      <c r="AI20" s="35"/>
-      <c r="AJ20" s="35"/>
-      <c r="AK20" s="35"/>
-      <c r="AL20" s="35"/>
-      <c r="AM20" s="35"/>
-      <c r="AN20" s="35"/>
-      <c r="AO20" s="35"/>
-      <c r="AP20" s="35"/>
-      <c r="AQ20" s="35"/>
-      <c r="AR20" s="35"/>
-      <c r="AS20" s="35"/>
-      <c r="AT20" s="35"/>
-      <c r="AU20" s="35"/>
-      <c r="AV20" s="35"/>
-      <c r="AW20" s="35"/>
-      <c r="AX20" s="35"/>
-      <c r="AY20" s="36"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="48"/>
+      <c r="AP20" s="48"/>
+      <c r="AQ20" s="48"/>
+      <c r="AR20" s="48"/>
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
+      <c r="AU20" s="48"/>
+      <c r="AV20" s="48"/>
+      <c r="AW20" s="48"/>
+      <c r="AX20" s="48"/>
+      <c r="AY20" s="49"/>
       <c r="AZ20" s="21"/>
     </row>
     <row r="21" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="35"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-      <c r="AO21" s="35"/>
-      <c r="AP21" s="35"/>
-      <c r="AQ21" s="35"/>
-      <c r="AR21" s="35"/>
-      <c r="AS21" s="35"/>
-      <c r="AT21" s="35"/>
-      <c r="AU21" s="35"/>
-      <c r="AV21" s="35"/>
-      <c r="AW21" s="35"/>
-      <c r="AX21" s="35"/>
-      <c r="AY21" s="36"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="48"/>
+      <c r="AO21" s="48"/>
+      <c r="AP21" s="48"/>
+      <c r="AQ21" s="48"/>
+      <c r="AR21" s="48"/>
+      <c r="AS21" s="48"/>
+      <c r="AT21" s="48"/>
+      <c r="AU21" s="48"/>
+      <c r="AV21" s="48"/>
+      <c r="AW21" s="48"/>
+      <c r="AX21" s="48"/>
+      <c r="AY21" s="49"/>
       <c r="AZ21" s="21"/>
     </row>
     <row r="22" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="35"/>
-      <c r="AQ22" s="35"/>
-      <c r="AR22" s="35"/>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="35"/>
-      <c r="AU22" s="35"/>
-      <c r="AV22" s="35"/>
-      <c r="AW22" s="35"/>
-      <c r="AX22" s="35"/>
-      <c r="AY22" s="36"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="48"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="48"/>
+      <c r="AK22" s="48"/>
+      <c r="AL22" s="48"/>
+      <c r="AM22" s="48"/>
+      <c r="AN22" s="48"/>
+      <c r="AO22" s="48"/>
+      <c r="AP22" s="48"/>
+      <c r="AQ22" s="48"/>
+      <c r="AR22" s="48"/>
+      <c r="AS22" s="48"/>
+      <c r="AT22" s="48"/>
+      <c r="AU22" s="48"/>
+      <c r="AV22" s="48"/>
+      <c r="AW22" s="48"/>
+      <c r="AX22" s="48"/>
+      <c r="AY22" s="49"/>
       <c r="AZ22" s="21"/>
     </row>
     <row r="23" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="35"/>
-      <c r="AQ23" s="35"/>
-      <c r="AR23" s="35"/>
-      <c r="AS23" s="35"/>
-      <c r="AT23" s="35"/>
-      <c r="AU23" s="35"/>
-      <c r="AV23" s="35"/>
-      <c r="AW23" s="35"/>
-      <c r="AX23" s="35"/>
-      <c r="AY23" s="36"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="48"/>
+      <c r="AJ23" s="48"/>
+      <c r="AK23" s="48"/>
+      <c r="AL23" s="48"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="48"/>
+      <c r="AO23" s="48"/>
+      <c r="AP23" s="48"/>
+      <c r="AQ23" s="48"/>
+      <c r="AR23" s="48"/>
+      <c r="AS23" s="48"/>
+      <c r="AT23" s="48"/>
+      <c r="AU23" s="48"/>
+      <c r="AV23" s="48"/>
+      <c r="AW23" s="48"/>
+      <c r="AX23" s="48"/>
+      <c r="AY23" s="49"/>
       <c r="AZ23" s="21"/>
     </row>
     <row r="24" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="35"/>
-      <c r="AQ24" s="35"/>
-      <c r="AR24" s="35"/>
-      <c r="AS24" s="35"/>
-      <c r="AT24" s="35"/>
-      <c r="AU24" s="35"/>
-      <c r="AV24" s="35"/>
-      <c r="AW24" s="35"/>
-      <c r="AX24" s="35"/>
-      <c r="AY24" s="36"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="48"/>
+      <c r="AF24" s="48"/>
+      <c r="AG24" s="48"/>
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="48"/>
+      <c r="AJ24" s="48"/>
+      <c r="AK24" s="48"/>
+      <c r="AL24" s="48"/>
+      <c r="AM24" s="48"/>
+      <c r="AN24" s="48"/>
+      <c r="AO24" s="48"/>
+      <c r="AP24" s="48"/>
+      <c r="AQ24" s="48"/>
+      <c r="AR24" s="48"/>
+      <c r="AS24" s="48"/>
+      <c r="AT24" s="48"/>
+      <c r="AU24" s="48"/>
+      <c r="AV24" s="48"/>
+      <c r="AW24" s="48"/>
+      <c r="AX24" s="48"/>
+      <c r="AY24" s="49"/>
       <c r="AZ24" s="21"/>
     </row>
     <row r="25" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="35"/>
-      <c r="AH25" s="35"/>
-      <c r="AI25" s="35"/>
-      <c r="AJ25" s="35"/>
-      <c r="AK25" s="35"/>
-      <c r="AL25" s="35"/>
-      <c r="AM25" s="35"/>
-      <c r="AN25" s="35"/>
-      <c r="AO25" s="35"/>
-      <c r="AP25" s="35"/>
-      <c r="AQ25" s="35"/>
-      <c r="AR25" s="35"/>
-      <c r="AS25" s="35"/>
-      <c r="AT25" s="35"/>
-      <c r="AU25" s="35"/>
-      <c r="AV25" s="35"/>
-      <c r="AW25" s="35"/>
-      <c r="AX25" s="35"/>
-      <c r="AY25" s="36"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="48"/>
+      <c r="AL25" s="48"/>
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="48"/>
+      <c r="AO25" s="48"/>
+      <c r="AP25" s="48"/>
+      <c r="AQ25" s="48"/>
+      <c r="AR25" s="48"/>
+      <c r="AS25" s="48"/>
+      <c r="AT25" s="48"/>
+      <c r="AU25" s="48"/>
+      <c r="AV25" s="48"/>
+      <c r="AW25" s="48"/>
+      <c r="AX25" s="48"/>
+      <c r="AY25" s="49"/>
       <c r="AZ25" s="21"/>
     </row>
     <row r="26" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="53"/>
-      <c r="AC26" s="53"/>
-      <c r="AD26" s="53"/>
-      <c r="AE26" s="53"/>
-      <c r="AF26" s="53"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="53"/>
-      <c r="AJ26" s="53"/>
-      <c r="AK26" s="53"/>
-      <c r="AL26" s="53"/>
-      <c r="AM26" s="53"/>
-      <c r="AN26" s="53"/>
-      <c r="AO26" s="53"/>
-      <c r="AP26" s="53"/>
-      <c r="AQ26" s="53"/>
-      <c r="AR26" s="53"/>
-      <c r="AS26" s="53"/>
-      <c r="AT26" s="53"/>
-      <c r="AU26" s="53"/>
-      <c r="AV26" s="53"/>
-      <c r="AW26" s="53"/>
-      <c r="AX26" s="53"/>
-      <c r="AY26" s="54"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="90"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="90"/>
+      <c r="AB26" s="90"/>
+      <c r="AC26" s="90"/>
+      <c r="AD26" s="90"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="90"/>
+      <c r="AG26" s="90"/>
+      <c r="AH26" s="90"/>
+      <c r="AI26" s="90"/>
+      <c r="AJ26" s="90"/>
+      <c r="AK26" s="90"/>
+      <c r="AL26" s="90"/>
+      <c r="AM26" s="90"/>
+      <c r="AN26" s="90"/>
+      <c r="AO26" s="90"/>
+      <c r="AP26" s="90"/>
+      <c r="AQ26" s="90"/>
+      <c r="AR26" s="90"/>
+      <c r="AS26" s="90"/>
+      <c r="AT26" s="90"/>
+      <c r="AU26" s="90"/>
+      <c r="AV26" s="90"/>
+      <c r="AW26" s="90"/>
+      <c r="AX26" s="90"/>
+      <c r="AY26" s="91"/>
       <c r="AZ26" s="15"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2880,20 +2880,73 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:AY22"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="Q25:AY25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:AY10"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:AY26"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:AY23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="Q24:AY24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:AY18"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:AY20"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:AY21"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AY19"/>
+    <mergeCell ref="Q11:AY11"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AY13"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:AY14"/>
+    <mergeCell ref="Q12:AY12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AY17"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:AY15"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:AY16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:M3"/>
     <mergeCell ref="B7:D7"/>
@@ -2910,73 +2963,20 @@
     <mergeCell ref="Q8:AY8"/>
     <mergeCell ref="Q9:AY9"/>
     <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:AY17"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:AY15"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:AY16"/>
-    <mergeCell ref="Q11:AY11"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AY13"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:AY14"/>
-    <mergeCell ref="Q12:AY12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:AY18"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="Q20:AY20"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:AY21"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:AY19"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="Q10:AY10"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q26:AY26"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:AY23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="Q24:AY24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:AY22"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="Q25:AY25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -2996,10 +2996,10 @@
   </sheetPr>
   <dimension ref="A1:AZ54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4:AL4"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3008,201 +3008,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="str">
+      <c r="A1" s="72" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>システム構成図</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="55" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="71" t="str">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="76" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="55" t="s">
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55" t="s">
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55" t="s">
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55" t="s">
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="91"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="92"/>
     </row>
     <row r="2" spans="1:52" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="57" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="58" t="str">
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="64" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="59">
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="65">
         <v>73050</v>
       </c>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="61" t="s">
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="65"/>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="63"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="68"/>
     </row>
     <row r="3" spans="1:52" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="62" t="str">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="73" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="62" t="str">
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40" t="str">
         <f>設定情報!$C$5</f>
-        <v>システムアーキテクチャ</v>
+        <v>システム構成図</v>
       </c>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="60"/>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="64"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="69"/>
     </row>
     <row r="4" spans="1:52" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
@@ -3260,8 +3260,8 @@
     </row>
     <row r="5" spans="1:52" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="92" t="s">
-        <v>23</v>
+      <c r="B5" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -5962,6 +5962,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="AG2:AL3"/>
@@ -5975,10 +5979,6 @@
     <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="S1:AF1"/>
     <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -5999,7 +5999,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6038,7 +6038,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/設計書/01_基本設計（外部設計）/02_システム構造設計/システム構成図.xlsx
+++ b/設計書/01_基本設計（外部設計）/02_システム構造設計/システム構成図.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="1350" windowWidth="23715" windowHeight="9465" tabRatio="656"/>
+    <workbookView xWindow="210" yWindow="1350" windowWidth="23715" windowHeight="9465" tabRatio="656" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -983,6 +983,77 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>81970</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noGrp="1" noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="544286" y="1061356"/>
+          <a:ext cx="9879113" cy="7511143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1302,7 +1373,7 @@
   </sheetPr>
   <dimension ref="A1:AZ28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4:AL4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -2996,10 +3067,10 @@
   </sheetPr>
   <dimension ref="A1:AZ54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4:AL4"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="AQ18" sqref="AQ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3371,7 +3442,7 @@
     <row r="7" spans="1:52" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+      <c r="C7"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
@@ -3396,7 +3467,7 @@
       <c r="Y7" s="29"/>
       <c r="Z7" s="29"/>
       <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
+      <c r="AB7"/>
       <c r="AC7" s="29"/>
       <c r="AD7" s="29"/>
       <c r="AE7" s="29"/>
@@ -5962,6 +6033,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="S2:AF2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:M3"/>
     <mergeCell ref="N3:R3"/>
@@ -5978,7 +6050,6 @@
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="S2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -5987,6 +6058,7 @@
     <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
     <oddFooter>&amp;RAll Rights Reserved, Copyright © ○○○○○株式会社 2016</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/設計書/01_基本設計（外部設計）/02_システム構造設計/システム構成図.xlsx
+++ b/設計書/01_基本設計（外部設計）/02_システム構造設計/システム構成図.xlsx
@@ -765,6 +765,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -783,15 +801,99 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -813,12 +915,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -847,102 +943,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -983,77 +983,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>81970</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noGrp="1" noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="544286" y="1061356"/>
-          <a:ext cx="9879113" cy="7511143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1385,201 +1314,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="68" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="61" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="76" t="str">
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="72" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="61" t="s">
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61" t="s">
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61" t="s">
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61" t="s">
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="62"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="57"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="63" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="64" t="str">
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="59" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="65">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="60">
         <v>73050</v>
       </c>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="67" t="s">
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="68"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="64"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40" t="str">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="63" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="39" t="s">
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40" t="str">
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="63" t="str">
         <f>設定情報!$C$5</f>
         <v>システム構成図</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="69"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="65"/>
     </row>
     <row r="4" spans="1:52" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
@@ -1747,1098 +1676,1098 @@
     </row>
     <row r="7" spans="1:52" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="41" t="s">
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="41" t="s">
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="42"/>
-      <c r="AL7" s="42"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="42"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="42"/>
-      <c r="AX7" s="42"/>
-      <c r="AY7" s="43"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="76"/>
+      <c r="AD7" s="76"/>
+      <c r="AE7" s="76"/>
+      <c r="AF7" s="76"/>
+      <c r="AG7" s="76"/>
+      <c r="AH7" s="76"/>
+      <c r="AI7" s="76"/>
+      <c r="AJ7" s="76"/>
+      <c r="AK7" s="76"/>
+      <c r="AL7" s="76"/>
+      <c r="AM7" s="76"/>
+      <c r="AN7" s="76"/>
+      <c r="AO7" s="76"/>
+      <c r="AP7" s="76"/>
+      <c r="AQ7" s="76"/>
+      <c r="AR7" s="76"/>
+      <c r="AS7" s="76"/>
+      <c r="AT7" s="76"/>
+      <c r="AU7" s="76"/>
+      <c r="AV7" s="76"/>
+      <c r="AW7" s="76"/>
+      <c r="AX7" s="76"/>
+      <c r="AY7" s="77"/>
       <c r="AZ7" s="14"/>
     </row>
     <row r="8" spans="1:52" s="11" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="57"/>
-      <c r="AG8" s="57"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="57"/>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="57"/>
-      <c r="AL8" s="57"/>
-      <c r="AM8" s="57"/>
-      <c r="AN8" s="57"/>
-      <c r="AO8" s="57"/>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="57"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="57"/>
-      <c r="AY8" s="58"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="90"/>
       <c r="AZ8" s="21"/>
     </row>
     <row r="9" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
-      <c r="B9" s="32">
+      <c r="B9" s="38">
         <v>1</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35">
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41">
         <v>73050</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="47" t="s">
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="60" t="s">
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="48"/>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="48"/>
-      <c r="AM9" s="48"/>
-      <c r="AN9" s="48"/>
-      <c r="AO9" s="48"/>
-      <c r="AP9" s="48"/>
-      <c r="AQ9" s="48"/>
-      <c r="AR9" s="48"/>
-      <c r="AS9" s="48"/>
-      <c r="AT9" s="48"/>
-      <c r="AU9" s="48"/>
-      <c r="AV9" s="48"/>
-      <c r="AW9" s="48"/>
-      <c r="AX9" s="48"/>
-      <c r="AY9" s="49"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36"/>
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="36"/>
+      <c r="AY9" s="37"/>
       <c r="AZ9" s="21"/>
     </row>
     <row r="10" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="48"/>
-      <c r="AM10" s="48"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="48"/>
-      <c r="AP10" s="48"/>
-      <c r="AQ10" s="48"/>
-      <c r="AR10" s="48"/>
-      <c r="AS10" s="48"/>
-      <c r="AT10" s="48"/>
-      <c r="AU10" s="48"/>
-      <c r="AV10" s="48"/>
-      <c r="AW10" s="48"/>
-      <c r="AX10" s="48"/>
-      <c r="AY10" s="49"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="36"/>
+      <c r="AK10" s="36"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="36"/>
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="36"/>
+      <c r="AQ10" s="36"/>
+      <c r="AR10" s="36"/>
+      <c r="AS10" s="36"/>
+      <c r="AT10" s="36"/>
+      <c r="AU10" s="36"/>
+      <c r="AV10" s="36"/>
+      <c r="AW10" s="36"/>
+      <c r="AX10" s="36"/>
+      <c r="AY10" s="37"/>
       <c r="AZ10" s="21"/>
     </row>
     <row r="11" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="48"/>
-      <c r="AM11" s="48"/>
-      <c r="AN11" s="48"/>
-      <c r="AO11" s="48"/>
-      <c r="AP11" s="48"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="48"/>
-      <c r="AS11" s="48"/>
-      <c r="AT11" s="48"/>
-      <c r="AU11" s="48"/>
-      <c r="AV11" s="48"/>
-      <c r="AW11" s="48"/>
-      <c r="AX11" s="48"/>
-      <c r="AY11" s="49"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="36"/>
+      <c r="AR11" s="36"/>
+      <c r="AS11" s="36"/>
+      <c r="AT11" s="36"/>
+      <c r="AU11" s="36"/>
+      <c r="AV11" s="36"/>
+      <c r="AW11" s="36"/>
+      <c r="AX11" s="36"/>
+      <c r="AY11" s="37"/>
       <c r="AZ11" s="21"/>
     </row>
     <row r="12" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="48"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="48"/>
-      <c r="AP12" s="48"/>
-      <c r="AQ12" s="48"/>
-      <c r="AR12" s="48"/>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="48"/>
-      <c r="AU12" s="48"/>
-      <c r="AV12" s="48"/>
-      <c r="AW12" s="48"/>
-      <c r="AX12" s="48"/>
-      <c r="AY12" s="49"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="36"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="36"/>
+      <c r="AW12" s="36"/>
+      <c r="AX12" s="36"/>
+      <c r="AY12" s="37"/>
       <c r="AZ12" s="21"/>
     </row>
     <row r="13" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="48"/>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="48"/>
-      <c r="AU13" s="48"/>
-      <c r="AV13" s="48"/>
-      <c r="AW13" s="48"/>
-      <c r="AX13" s="48"/>
-      <c r="AY13" s="49"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="36"/>
+      <c r="AT13" s="36"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="36"/>
+      <c r="AW13" s="36"/>
+      <c r="AX13" s="36"/>
+      <c r="AY13" s="37"/>
       <c r="AZ13" s="21"/>
     </row>
     <row r="14" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="48"/>
-      <c r="AM14" s="48"/>
-      <c r="AN14" s="48"/>
-      <c r="AO14" s="48"/>
-      <c r="AP14" s="48"/>
-      <c r="AQ14" s="48"/>
-      <c r="AR14" s="48"/>
-      <c r="AS14" s="48"/>
-      <c r="AT14" s="48"/>
-      <c r="AU14" s="48"/>
-      <c r="AV14" s="48"/>
-      <c r="AW14" s="48"/>
-      <c r="AX14" s="48"/>
-      <c r="AY14" s="49"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
+      <c r="AR14" s="36"/>
+      <c r="AS14" s="36"/>
+      <c r="AT14" s="36"/>
+      <c r="AU14" s="36"/>
+      <c r="AV14" s="36"/>
+      <c r="AW14" s="36"/>
+      <c r="AX14" s="36"/>
+      <c r="AY14" s="37"/>
       <c r="AZ14" s="21"/>
     </row>
     <row r="15" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="48"/>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="48"/>
-      <c r="AO15" s="48"/>
-      <c r="AP15" s="48"/>
-      <c r="AQ15" s="48"/>
-      <c r="AR15" s="48"/>
-      <c r="AS15" s="48"/>
-      <c r="AT15" s="48"/>
-      <c r="AU15" s="48"/>
-      <c r="AV15" s="48"/>
-      <c r="AW15" s="48"/>
-      <c r="AX15" s="48"/>
-      <c r="AY15" s="49"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="36"/>
+      <c r="AR15" s="36"/>
+      <c r="AS15" s="36"/>
+      <c r="AT15" s="36"/>
+      <c r="AU15" s="36"/>
+      <c r="AV15" s="36"/>
+      <c r="AW15" s="36"/>
+      <c r="AX15" s="36"/>
+      <c r="AY15" s="37"/>
       <c r="AZ15" s="21"/>
     </row>
     <row r="16" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="48"/>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="48"/>
-      <c r="AN16" s="48"/>
-      <c r="AO16" s="48"/>
-      <c r="AP16" s="48"/>
-      <c r="AQ16" s="48"/>
-      <c r="AR16" s="48"/>
-      <c r="AS16" s="48"/>
-      <c r="AT16" s="48"/>
-      <c r="AU16" s="48"/>
-      <c r="AV16" s="48"/>
-      <c r="AW16" s="48"/>
-      <c r="AX16" s="48"/>
-      <c r="AY16" s="49"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="36"/>
+      <c r="AT16" s="36"/>
+      <c r="AU16" s="36"/>
+      <c r="AV16" s="36"/>
+      <c r="AW16" s="36"/>
+      <c r="AX16" s="36"/>
+      <c r="AY16" s="37"/>
       <c r="AZ16" s="21"/>
     </row>
     <row r="17" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="48"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="48"/>
-      <c r="AM17" s="48"/>
-      <c r="AN17" s="48"/>
-      <c r="AO17" s="48"/>
-      <c r="AP17" s="48"/>
-      <c r="AQ17" s="48"/>
-      <c r="AR17" s="48"/>
-      <c r="AS17" s="48"/>
-      <c r="AT17" s="48"/>
-      <c r="AU17" s="48"/>
-      <c r="AV17" s="48"/>
-      <c r="AW17" s="48"/>
-      <c r="AX17" s="48"/>
-      <c r="AY17" s="49"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="36"/>
+      <c r="AR17" s="36"/>
+      <c r="AS17" s="36"/>
+      <c r="AT17" s="36"/>
+      <c r="AU17" s="36"/>
+      <c r="AV17" s="36"/>
+      <c r="AW17" s="36"/>
+      <c r="AX17" s="36"/>
+      <c r="AY17" s="37"/>
       <c r="AZ17" s="21"/>
     </row>
     <row r="18" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="48"/>
-      <c r="AN18" s="48"/>
-      <c r="AO18" s="48"/>
-      <c r="AP18" s="48"/>
-      <c r="AQ18" s="48"/>
-      <c r="AR18" s="48"/>
-      <c r="AS18" s="48"/>
-      <c r="AT18" s="48"/>
-      <c r="AU18" s="48"/>
-      <c r="AV18" s="48"/>
-      <c r="AW18" s="48"/>
-      <c r="AX18" s="48"/>
-      <c r="AY18" s="49"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="36"/>
+      <c r="AR18" s="36"/>
+      <c r="AS18" s="36"/>
+      <c r="AT18" s="36"/>
+      <c r="AU18" s="36"/>
+      <c r="AV18" s="36"/>
+      <c r="AW18" s="36"/>
+      <c r="AX18" s="36"/>
+      <c r="AY18" s="37"/>
       <c r="AZ18" s="21"/>
     </row>
     <row r="19" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="48"/>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="48"/>
-      <c r="AN19" s="48"/>
-      <c r="AO19" s="48"/>
-      <c r="AP19" s="48"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="48"/>
-      <c r="AS19" s="48"/>
-      <c r="AT19" s="48"/>
-      <c r="AU19" s="48"/>
-      <c r="AV19" s="48"/>
-      <c r="AW19" s="48"/>
-      <c r="AX19" s="48"/>
-      <c r="AY19" s="49"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="36"/>
+      <c r="AT19" s="36"/>
+      <c r="AU19" s="36"/>
+      <c r="AV19" s="36"/>
+      <c r="AW19" s="36"/>
+      <c r="AX19" s="36"/>
+      <c r="AY19" s="37"/>
       <c r="AZ19" s="21"/>
     </row>
     <row r="20" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="48"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="48"/>
-      <c r="AM20" s="48"/>
-      <c r="AN20" s="48"/>
-      <c r="AO20" s="48"/>
-      <c r="AP20" s="48"/>
-      <c r="AQ20" s="48"/>
-      <c r="AR20" s="48"/>
-      <c r="AS20" s="48"/>
-      <c r="AT20" s="48"/>
-      <c r="AU20" s="48"/>
-      <c r="AV20" s="48"/>
-      <c r="AW20" s="48"/>
-      <c r="AX20" s="48"/>
-      <c r="AY20" s="49"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
+      <c r="AR20" s="36"/>
+      <c r="AS20" s="36"/>
+      <c r="AT20" s="36"/>
+      <c r="AU20" s="36"/>
+      <c r="AV20" s="36"/>
+      <c r="AW20" s="36"/>
+      <c r="AX20" s="36"/>
+      <c r="AY20" s="37"/>
       <c r="AZ20" s="21"/>
     </row>
     <row r="21" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="48"/>
-      <c r="AK21" s="48"/>
-      <c r="AL21" s="48"/>
-      <c r="AM21" s="48"/>
-      <c r="AN21" s="48"/>
-      <c r="AO21" s="48"/>
-      <c r="AP21" s="48"/>
-      <c r="AQ21" s="48"/>
-      <c r="AR21" s="48"/>
-      <c r="AS21" s="48"/>
-      <c r="AT21" s="48"/>
-      <c r="AU21" s="48"/>
-      <c r="AV21" s="48"/>
-      <c r="AW21" s="48"/>
-      <c r="AX21" s="48"/>
-      <c r="AY21" s="49"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="36"/>
+      <c r="AR21" s="36"/>
+      <c r="AS21" s="36"/>
+      <c r="AT21" s="36"/>
+      <c r="AU21" s="36"/>
+      <c r="AV21" s="36"/>
+      <c r="AW21" s="36"/>
+      <c r="AX21" s="36"/>
+      <c r="AY21" s="37"/>
       <c r="AZ21" s="21"/>
     </row>
     <row r="22" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="48"/>
-      <c r="AK22" s="48"/>
-      <c r="AL22" s="48"/>
-      <c r="AM22" s="48"/>
-      <c r="AN22" s="48"/>
-      <c r="AO22" s="48"/>
-      <c r="AP22" s="48"/>
-      <c r="AQ22" s="48"/>
-      <c r="AR22" s="48"/>
-      <c r="AS22" s="48"/>
-      <c r="AT22" s="48"/>
-      <c r="AU22" s="48"/>
-      <c r="AV22" s="48"/>
-      <c r="AW22" s="48"/>
-      <c r="AX22" s="48"/>
-      <c r="AY22" s="49"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="36"/>
+      <c r="AL22" s="36"/>
+      <c r="AM22" s="36"/>
+      <c r="AN22" s="36"/>
+      <c r="AO22" s="36"/>
+      <c r="AP22" s="36"/>
+      <c r="AQ22" s="36"/>
+      <c r="AR22" s="36"/>
+      <c r="AS22" s="36"/>
+      <c r="AT22" s="36"/>
+      <c r="AU22" s="36"/>
+      <c r="AV22" s="36"/>
+      <c r="AW22" s="36"/>
+      <c r="AX22" s="36"/>
+      <c r="AY22" s="37"/>
       <c r="AZ22" s="21"/>
     </row>
     <row r="23" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="48"/>
-      <c r="AJ23" s="48"/>
-      <c r="AK23" s="48"/>
-      <c r="AL23" s="48"/>
-      <c r="AM23" s="48"/>
-      <c r="AN23" s="48"/>
-      <c r="AO23" s="48"/>
-      <c r="AP23" s="48"/>
-      <c r="AQ23" s="48"/>
-      <c r="AR23" s="48"/>
-      <c r="AS23" s="48"/>
-      <c r="AT23" s="48"/>
-      <c r="AU23" s="48"/>
-      <c r="AV23" s="48"/>
-      <c r="AW23" s="48"/>
-      <c r="AX23" s="48"/>
-      <c r="AY23" s="49"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
+      <c r="AK23" s="36"/>
+      <c r="AL23" s="36"/>
+      <c r="AM23" s="36"/>
+      <c r="AN23" s="36"/>
+      <c r="AO23" s="36"/>
+      <c r="AP23" s="36"/>
+      <c r="AQ23" s="36"/>
+      <c r="AR23" s="36"/>
+      <c r="AS23" s="36"/>
+      <c r="AT23" s="36"/>
+      <c r="AU23" s="36"/>
+      <c r="AV23" s="36"/>
+      <c r="AW23" s="36"/>
+      <c r="AX23" s="36"/>
+      <c r="AY23" s="37"/>
       <c r="AZ23" s="21"/>
     </row>
     <row r="24" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="48"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="48"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="48"/>
-      <c r="AI24" s="48"/>
-      <c r="AJ24" s="48"/>
-      <c r="AK24" s="48"/>
-      <c r="AL24" s="48"/>
-      <c r="AM24" s="48"/>
-      <c r="AN24" s="48"/>
-      <c r="AO24" s="48"/>
-      <c r="AP24" s="48"/>
-      <c r="AQ24" s="48"/>
-      <c r="AR24" s="48"/>
-      <c r="AS24" s="48"/>
-      <c r="AT24" s="48"/>
-      <c r="AU24" s="48"/>
-      <c r="AV24" s="48"/>
-      <c r="AW24" s="48"/>
-      <c r="AX24" s="48"/>
-      <c r="AY24" s="49"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="36"/>
+      <c r="AL24" s="36"/>
+      <c r="AM24" s="36"/>
+      <c r="AN24" s="36"/>
+      <c r="AO24" s="36"/>
+      <c r="AP24" s="36"/>
+      <c r="AQ24" s="36"/>
+      <c r="AR24" s="36"/>
+      <c r="AS24" s="36"/>
+      <c r="AT24" s="36"/>
+      <c r="AU24" s="36"/>
+      <c r="AV24" s="36"/>
+      <c r="AW24" s="36"/>
+      <c r="AX24" s="36"/>
+      <c r="AY24" s="37"/>
       <c r="AZ24" s="21"/>
     </row>
     <row r="25" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="48"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="48"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="48"/>
-      <c r="AL25" s="48"/>
-      <c r="AM25" s="48"/>
-      <c r="AN25" s="48"/>
-      <c r="AO25" s="48"/>
-      <c r="AP25" s="48"/>
-      <c r="AQ25" s="48"/>
-      <c r="AR25" s="48"/>
-      <c r="AS25" s="48"/>
-      <c r="AT25" s="48"/>
-      <c r="AU25" s="48"/>
-      <c r="AV25" s="48"/>
-      <c r="AW25" s="48"/>
-      <c r="AX25" s="48"/>
-      <c r="AY25" s="49"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="36"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="36"/>
+      <c r="AL25" s="36"/>
+      <c r="AM25" s="36"/>
+      <c r="AN25" s="36"/>
+      <c r="AO25" s="36"/>
+      <c r="AP25" s="36"/>
+      <c r="AQ25" s="36"/>
+      <c r="AR25" s="36"/>
+      <c r="AS25" s="36"/>
+      <c r="AT25" s="36"/>
+      <c r="AU25" s="36"/>
+      <c r="AV25" s="36"/>
+      <c r="AW25" s="36"/>
+      <c r="AX25" s="36"/>
+      <c r="AY25" s="37"/>
       <c r="AZ25" s="21"/>
     </row>
     <row r="26" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="89"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="90"/>
-      <c r="T26" s="90"/>
-      <c r="U26" s="90"/>
-      <c r="V26" s="90"/>
-      <c r="W26" s="90"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="90"/>
-      <c r="Z26" s="90"/>
-      <c r="AA26" s="90"/>
-      <c r="AB26" s="90"/>
-      <c r="AC26" s="90"/>
-      <c r="AD26" s="90"/>
-      <c r="AE26" s="90"/>
-      <c r="AF26" s="90"/>
-      <c r="AG26" s="90"/>
-      <c r="AH26" s="90"/>
-      <c r="AI26" s="90"/>
-      <c r="AJ26" s="90"/>
-      <c r="AK26" s="90"/>
-      <c r="AL26" s="90"/>
-      <c r="AM26" s="90"/>
-      <c r="AN26" s="90"/>
-      <c r="AO26" s="90"/>
-      <c r="AP26" s="90"/>
-      <c r="AQ26" s="90"/>
-      <c r="AR26" s="90"/>
-      <c r="AS26" s="90"/>
-      <c r="AT26" s="90"/>
-      <c r="AU26" s="90"/>
-      <c r="AV26" s="90"/>
-      <c r="AW26" s="90"/>
-      <c r="AX26" s="90"/>
-      <c r="AY26" s="91"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="54"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="54"/>
+      <c r="AF26" s="54"/>
+      <c r="AG26" s="54"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="54"/>
+      <c r="AJ26" s="54"/>
+      <c r="AK26" s="54"/>
+      <c r="AL26" s="54"/>
+      <c r="AM26" s="54"/>
+      <c r="AN26" s="54"/>
+      <c r="AO26" s="54"/>
+      <c r="AP26" s="54"/>
+      <c r="AQ26" s="54"/>
+      <c r="AR26" s="54"/>
+      <c r="AS26" s="54"/>
+      <c r="AT26" s="54"/>
+      <c r="AU26" s="54"/>
+      <c r="AV26" s="54"/>
+      <c r="AW26" s="54"/>
+      <c r="AX26" s="54"/>
+      <c r="AY26" s="55"/>
       <c r="AZ26" s="15"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2951,14 +2880,79 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:AY22"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="Q25:AY25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="Q7:AY7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:AY8"/>
+    <mergeCell ref="Q9:AY9"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AY17"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:AY15"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:AY16"/>
+    <mergeCell ref="Q11:AY11"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AY13"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:AY14"/>
+    <mergeCell ref="Q12:AY12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:AY18"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:AY20"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:AY21"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AY19"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:J10"/>
     <mergeCell ref="K10:P10"/>
@@ -2975,79 +2969,14 @@
     <mergeCell ref="Q24:AY24"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:J23"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:AY18"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="Q20:AY20"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:AY21"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:AY19"/>
-    <mergeCell ref="Q11:AY11"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AY13"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:AY14"/>
-    <mergeCell ref="Q12:AY12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:AY17"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:AY15"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:AY16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="Q7:AY7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="Q8:AY8"/>
-    <mergeCell ref="Q9:AY9"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:AY22"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="Q25:AY25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -3070,7 +2999,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4:AL4"/>
-      <selection pane="bottomLeft" activeCell="AQ18" sqref="AQ18"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3079,201 +3008,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="68" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>システム構成図</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="61" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="76" t="str">
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="72" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="61" t="s">
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61" t="s">
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61" t="s">
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61" t="s">
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="61"/>
+      <c r="AY1" s="56"/>
       <c r="AZ1" s="92"/>
     </row>
     <row r="2" spans="1:52" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="63" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="64" t="str">
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="59" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="65">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="60">
         <v>73050</v>
       </c>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="67" t="s">
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="68"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="64"/>
     </row>
     <row r="3" spans="1:52" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40" t="str">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="63" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="39" t="s">
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40" t="str">
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="63" t="str">
         <f>設定情報!$C$5</f>
         <v>システム構成図</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="69"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="65"/>
     </row>
     <row r="4" spans="1:52" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
@@ -6033,11 +5962,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="AG2:AL3"/>
@@ -6050,6 +5974,11 @@
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -6058,7 +5987,6 @@
     <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
     <oddFooter>&amp;RAll Rights Reserved, Copyright © ○○○○○株式会社 2016</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/設計書/01_基本設計（外部設計）/02_システム構造設計/システム構成図.xlsx
+++ b/設計書/01_基本設計（外部設計）/02_システム構造設計/システム構成図.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="1350" windowWidth="23715" windowHeight="9465" tabRatio="656" activeTab="1"/>
+    <workbookView xWindow="210" yWindow="1350" windowWidth="23715" windowHeight="9465" tabRatio="656"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>プロジェクト</t>
   </si>
@@ -152,25 +152,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>XXXX</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>XXX</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>【システム構成図】</t>
     <rPh sb="5" eb="7">
       <t>コウセイ</t>
@@ -182,6 +163,16 @@
   </si>
   <si>
     <t>システム構成図</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>FS壁谷</t>
+    <rPh sb="2" eb="3">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タニ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -765,6 +756,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -774,33 +900,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -835,114 +934,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -983,6 +974,1227 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="560294" y="1098176"/>
+          <a:ext cx="13021235" cy="7530353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3720353" y="1781307"/>
+          <a:ext cx="8931088" cy="6432606"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8153"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575"/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="obliqueBottomRight"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19651</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>227479</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>40644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="右矢印 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171180" y="3404399"/>
+          <a:ext cx="1821475" cy="334186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>150967</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>39574</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1084737" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571438" y="3233250"/>
+          <a:ext cx="1084737" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="72000" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>http(80)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>141604</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>79855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>78438</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11358</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4175722" y="2937355"/>
+          <a:ext cx="2357304" cy="1780474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リバースプロキシ（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Nginx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133457</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>13845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165802</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>52106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27" descr="C:\Users\panasonic\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\TR0QXQCP\MC900411866[1].wmf"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1209222" y="3207521"/>
+          <a:ext cx="839168" cy="878703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>43808</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139745</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>131228</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1119573" y="4140663"/>
+          <a:ext cx="1171701" cy="192771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="72000" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>クライアント</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>134475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>191434</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>63396</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672357" y="1215331"/>
+          <a:ext cx="1670606" cy="192771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="72000" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>イントラ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>130395</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>103548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>161059</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>70193</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="AutoShape 1" descr="data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxQPDRUUEBQPEBAVFRAQGBUUEA8VEQ8PFhEXGRQUFBQYHCggGCYlHBUUITEhJSkrLi4vFx8zODMtNygtLi8BCgoKDg0OGxAQGiwmHyYsLDIsLCwsLCwsLDc3LCwtLiwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLP/AABEIAKAAoAMBEQACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcEBQECAwj/xABBEAABAgQCBgYHBQYHAAAAAAABAAIDBBESBSEGEzFBUWEHInGBkaEUMkJicrHRI1Ki4fAkM4KywfEVU3SSk7PC/8QAGwEBAAIDAQEAAAAAAAAAAAAAAAMFAQQGBwL/xAAzEQABBAIBAgQDBwMFAAAAAAAAAQIDEgQRBSExE0FRYSJxgQYUIyQyscGh0eFCUpHw8f/aAAwDAQACEQMRAD8AvFAEAQBAEAQBAEAQBAEBjMmw6MWDMhtx8aUWpHltkndE3yTqv8EjolaxHL5mStsjCAIAgCAIAgCAIAgCAIAgCAIAgCAIDV4viFgtb62/lyVHy3JJC3w2d/P2NzGx7rZexp9GIpM9FrvhNI7A/P5haf2efZz1Ulzk0iEsXUFcEAQBAEAQBAEAQBAEAQBAEAQHAKwi7TaA5WQYeJTmqZ7x2cuaruRzUxo+n6l7f3J4IfEd7EUjRC41K4CaVZHWUu2tRqaPTAXWT7ffY9nfkf6K9+z0mplb6oaec3bNkzXZlSEBjx5sNiMZ7TjTsFKrVlymsmZD3V39E9SRsaq1XeSGQtojCAIAgCAIAgCAIAgCA12NzVkIgbSD4Km5nL8GBWIvV37G1iRWfteyHpgsxrJaG7eWgHtGR+S38J98di+yEMyaeqGW9wAJOwZrYe9GNVy9kPhEVV0hEsSmjEeT+gF57yOY7IlVVLyCJGN0Yaric6Oi6uIyJ9xwcfh3+VVu8fP4M7X+5FOy7FQnoK9IKA85qOIbC4/3KgyZ2wRq9T7jYr3aQiTJovxCCSdrn+JYaLlONyFmz7u7llPHWHSEyXZFUEAQBAEAQBAEAQBAdXvABJ2DNfL3oxquXshlEVV0hEcTmtY8nd8gvPuSy1yJVcXmPFRujP0Rj9R8I7WuuHwu/MHxXS8BkXhWNe6Ffmx1fb1M3HpiyGBvd8gvrnMnw4UYndTGHHZ2/QjBK4depcCqwDrEbUELKdF2NEp0cmtZLNB9Zn2Z7th8KL0Pi8nx8Zq+adFKPJjpIph6QTVXWjYPmqLn8vb/AAk8jcwoullNBfZGhP8AuxGeBND5FVPFy+HktX3NnIbaNUJ+vRCiCAIAgCAIAgCAIAgNPpBOWtsG05ns3BUPN5dGeEnn3N/ChstlIwXLjFTZcaPfDJnVTDX7vVd8J+hoVY8Xl/dp0Vey9FNfJh8RioncztIJi6LkQQABktvnJkkm0i9EQhwo6s6mpuVFo3tC5NDQuTQ0bDApwQYrifUcKH4hsPmfFXPD5yY0io/9Kp/4aeXjrI3p3MWajXPJ4klV2TIskiuU2Y2VboxJtt0MjkomfC5FPpzdoTvC5rXS7H73NBPxb/Oq9Jx5fFia/wBUOckZRytMpTHwebowDw32iCR2D+6iWZqSJH5qir/wfSMVWq7yPRSnyEAQBAEB564X2e1S7urRR+K3xPD89bPqi1t5HMaIGNLjsAqsyPRjVcvZA1quVEQg0/NGJEJK8/zJnTSK5To4YkY1EQxblq6JtC9NCpyYlVldqEacXrGhoXpoaF6aGhemhoXpoaFyaGiQaGTWT4J9k6xvNrto7j/Muu4LItGsS+XYpuRiq5H+pIo8YMaXOyAV3LK2Nqud2K9jFeukInL4kYmKQuB1gpw6uQXO4OQs+cr19NFpkRJHj1QmC6YqQgCAIDhzqCpyAz7lhVRE2plE2ukIW3FiMQY85Nc4sPJrsh4ZLloMz89d3ZeheSYv5aqeXU3GlE7YwMG05ns3frkrDmcisaRp5mpx0NnK4h5euR0X1RelRoXpUaF6VGhelRoXpUVF6VGhelRoXpUVF6VGjIw2a1UdsQbsiOLTtC28LIXHmR6fX5EGRAksatNhjONGMaNybuH1W7yHILOum9jXxcJIuq9zXYA67FII4Niu/CpOEb+Ns+OS6RljLrChCAIAgNXpHNauXPF3V7t60ORl8OFffobuBF4kqexXz4lTmuOVNqdQjdIZM7iDoxq41NAPAKaeZ8y7cRRY7Yk00xb1BUmqL0qKi9KiovSo0L0qKi9KjQvSoqL0qKi9KiovSoqL1ioqL1moqbTQNmsxCK/2YcIMr7z3bu5h8Qui4WLW3FFyr+zSwlflMEAQBAQ7TmZ67G8Gk95P5BUPMP25G+xf8PF8Ku9yI3qiqXtRelRUXpUVF6VFRelRUXpUVF6VFRelRUXpUVF6VFRelRUXpUVF6VFQXpUxUmPRtBa2UiOBrEdFeX8iAA0f7aHvXV8ZXwOn1OV5NHJP1+hLlYFcEAQBAVzpvF/bHDgGjyXOcl1mU63iGfgIvzI7eq6pa1F6VFRrEqKjWJUVF6VFRelRUXpUVGsSoqNYlRUXpUVGsSoqNYlRUXpUVGsSoqSPo+nbJx8LdFZcPjYfo4+AVxxT9OVvqUPNw/Aj/QsVXhzYQBAEBWGnRpPO7GH8KoOQb+Mp2XDdcZPqR29aNS2qL0qKi9KiovSoqL0qKi9KiovSoqL0qKi9KiovSoqL0qKi9KiovSoqL0qKmZgE1q8RlnbtYGHneLfmQtvCWsqFdykdsd3yLlXRHEBAEAQFZ9JDLZwH70Np8CQqfPb+Jv2Ow4Bd46p6KpEb1o1L6ovSoqL0qKi9KiovSoqL0qKi9KiovSoqL0qKi9KiovSoqL0qKi9KiovSoqdpR/7XLf6mV/72KfGb+Iho8in5d/yX9lL4V+efhAEAQFf9KsAjURN32kM9uTm/Jyr85vZTqfs29PxGfJf4X+CvL1X1OrqL0qYqL0qZqL0qYqL0qZ0L0qNAvSpjRk4FhUfEopZLABjTR8ZwOrhnh7x5DyWzDjK8ps/lWY6aTue2N4cJSYdCa90QNIbcQAXOoK5DZnVRzRo1yohucfM6aBr3J1UwL1FU3qi9KmNC9Kmai9KjQvSoqZOCQ9biUozjHhv/AOM3/wDhbGM340Krl3UxnfL9+hfSuDgAgCAIDQ6b4f6Rh8QAVc0a1vGrM6eFVDOyzFQs+HyPAy2qvZei/UpO9VWj0XQvWdDQuWNDQuTQ0dDHANN+3uX0jNnw57WrpVO9yxo+9GXgODvxKbEvDNjAL4rxSsOFWmXM7B+SnghspS8vnpjs0ndS9cMw+HLQWwoLRDhsFAB8yd5PFWSJrohwb3ue5XO7lLaVvPp0av8AmxP5zRVUyfGp6PxjU+7M1/tT9jSmOK0rmo6m7Zu9He5NH1oXJoaFyaGhcmhokvRhKa7Fi/a2BCc4/G82t+TvBbmKzrs5b7RTaYjE8y5VvHIBAEAQHBQFGaZ4L6DOuYP3T6xIfwE5t/hOXZRVssdXHpHEZ33uBHL+pOi/3+po7lHotNC5NDRwXpoL0LB6MdHBGw+YixNs0HQW+5BZUA97iT2Nat6KP4F9zhOUz1TMaqf6F2QGdY6C97IgtfDLmOHBwWmrFRdKdq2ZkkfiMXoqbQt3oswUS2GtiOH20xSO877T+7b3NPmeKsIm1aec8nkrPkKvknRCYqQryk+kWBqcSi1yDrYo7HNz8wVXzN+M9D4SVH4TV9NobjQHRQTOER3xRR804GGT7DYVdU4dri89hCnZFtmjn83k1ZnNe3s3v/P9CCPBaS1wLXAlpB2tcDQg960tHcNVHIiovRTi5NGdC5NDR1ixbWknciNPl6o1u1Ld6KMFMth+teKRZkiMcsxDpSE3wJP8RVjEyrTzflcrx519EJqpStCAIAgCA0OmWjrcQlSzJsVtXw3H2X8DyOwqORlk0WHG57sOa6dl7oUXFhOhvcyI0se0lrmkULXDcVoKmj0qGVsrUe1dop1QlPOZdRh7CiEUy6Yp9B6Kyog4dLsHswYXiWgnzJVk3oh5XkOtK5fdSJ9J+hb5xmvlADMAWuZkNe3cQdlRz2jsUUsduqFrxnKrAxYX/pXsvp/gnsvBENjWMFGta1gHBrRQDwCmKVVVV2p6IYIZp9oa7E40uWuDGtLmRj7RgGh6nOoI/jruUT47KiltgcmuNDJH66VPn/39iXS0u2FDayGA1jQGtaNjWgUAUpVKqqu1KX6RZHU4nEpQB9sXIZVcM/ME960Zk049F4KfxcNu/LoRhRFyKoDbaG6PnE54MNfRoVsSMdxFerDr71D3AqeGPanN85yKRMo3upfrRQUGQGXIBbhwhygCAIAgCAICD9IGhfpg18sA2ZaOs3YJho3Hg4bj3cKQyxW6oXvEcuuKvhyfo/b/AAVEDmQQWuBIIIILXDaCNy01TR30cjXptDzmRVh7CsIJk2xUPozBIofKQXDYYUI/gCsk7HlMyVkci+qmaskQQBAEAQFS9K9PTRx1bK+JWnP+o7r7Nb+7L81IKoDpT1wvDos9MCBLCrzm5x9SEze5x/VVIyNXKVPJckzGYvqXzoxgELDpVsGDnTrOefWixCOs9303LeRNJo88nnfM9XuNsskIQBAEAQBAEAQEQ010HZP/AGkIiDNAetTqRRubEH9d3NRSRI4tuN5aTEWq9W+np8ioMUkIspF1Uywwn50r6rxxY7Y4LUcxWqdzi8hDkt21S3ui/FhMYc2GTWJAOqcN9u2Ge8fIrbidtpxPOYiwZKu8ndU/kmClKYIAgCAICj+kLExFnXmotBtB91uX1WjKtnHonDRJj4rbdPM12jWi8zih+xGpl60Md7Tbz1bcrz5c1lkSqa3I84yL4WdVLq0a0dg4dA1cBu2hc801kV/3nnf2bAtxGonY4qfIfO+z1NuskIQBAEAQBAEAQBAEBiYlh0KZhmHHhsisO5wBoeI4LCoi9z7jkfGtmLpSMYToR/h85rpKK4QnC2JAidYOZ7kTa0jaKg14hRpHVdoWM3JOyIvDmTeuy+n0JkpSrCAIAgMHGYcV8BzZcsbFcLQ59bYYO12WZ5L5dtU6E+M6NsiOlTaJ5evsRTBOjOWgu1k0507F29cBsJp5QwTXvJXw2JEN7M5efIXp8KeiE3Y0NAAAAGQAFABwAUpVHZAEAQBAEB//2Q=="/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7660748" y="1280166"/>
+          <a:ext cx="299605" cy="302821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>267072</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>48573</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>13657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4032248" y="1996509"/>
+          <a:ext cx="1664090" cy="202295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="72000" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AP/DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>サーバ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Linux)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>204365</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>79855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>67244</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11358</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7734718" y="2937355"/>
+          <a:ext cx="2821232" cy="1780474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Springboot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>内臓</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Tomcat</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>67241</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>123270</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>168082</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8135476" y="3328141"/>
+          <a:ext cx="1938618" cy="1210235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コンテナ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（月報管理システム）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>194463</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>82977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>137833</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="右矢印 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6649051" y="3444742"/>
+          <a:ext cx="1019135" cy="334186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>181944</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>51706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7712297" y="5939118"/>
+          <a:ext cx="2877261" cy="1340382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>データベース（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MySQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19651</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>227479</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>125811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="右矢印 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2171180" y="3825743"/>
+          <a:ext cx="1821475" cy="334186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>194463</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>112113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>137833</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>110122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="右矢印 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6649051" y="3810054"/>
+          <a:ext cx="1019135" cy="334186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>260148</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>56452</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>125389</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="右矢印 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8792732" y="5163729"/>
+          <a:ext cx="1019135" cy="334186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>53966</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>119211</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>125389</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="右矢印 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="8317609" y="5163729"/>
+          <a:ext cx="1019135" cy="334186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1302,7 +2514,7 @@
   </sheetPr>
   <dimension ref="A1:AZ28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4:AL4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1314,201 +2526,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="str">
+      <c r="A1" s="72" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="56" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="72" t="str">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="76" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="56" t="s">
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56" t="s">
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56" t="s">
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="57"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="62"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="58" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="59" t="str">
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="64" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="60">
-        <v>73050</v>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="65">
+        <v>42801</v>
       </c>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="62" t="s">
-        <v>21</v>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="67" t="s">
+        <v>22</v>
       </c>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="59"/>
-      <c r="AZ2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="68"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="63" t="str">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="74" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="63" t="str">
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40" t="str">
         <f>設定情報!$C$5</f>
         <v>システム構成図</v>
       </c>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="67"/>
-      <c r="AT3" s="67"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="65"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="69"/>
     </row>
     <row r="4" spans="1:52" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
@@ -1676,1098 +2888,1098 @@
     </row>
     <row r="7" spans="1:52" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="75" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="75" t="s">
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="76"/>
-      <c r="X7" s="76"/>
-      <c r="Y7" s="76"/>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="76"/>
-      <c r="AD7" s="76"/>
-      <c r="AE7" s="76"/>
-      <c r="AF7" s="76"/>
-      <c r="AG7" s="76"/>
-      <c r="AH7" s="76"/>
-      <c r="AI7" s="76"/>
-      <c r="AJ7" s="76"/>
-      <c r="AK7" s="76"/>
-      <c r="AL7" s="76"/>
-      <c r="AM7" s="76"/>
-      <c r="AN7" s="76"/>
-      <c r="AO7" s="76"/>
-      <c r="AP7" s="76"/>
-      <c r="AQ7" s="76"/>
-      <c r="AR7" s="76"/>
-      <c r="AS7" s="76"/>
-      <c r="AT7" s="76"/>
-      <c r="AU7" s="76"/>
-      <c r="AV7" s="76"/>
-      <c r="AW7" s="76"/>
-      <c r="AX7" s="76"/>
-      <c r="AY7" s="77"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="42"/>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="42"/>
+      <c r="AX7" s="42"/>
+      <c r="AY7" s="43"/>
       <c r="AZ7" s="14"/>
     </row>
     <row r="8" spans="1:52" s="11" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="89"/>
-      <c r="X8" s="89"/>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="89"/>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="89"/>
-      <c r="AD8" s="89"/>
-      <c r="AE8" s="89"/>
-      <c r="AF8" s="89"/>
-      <c r="AG8" s="89"/>
-      <c r="AH8" s="89"/>
-      <c r="AI8" s="89"/>
-      <c r="AJ8" s="89"/>
-      <c r="AK8" s="89"/>
-      <c r="AL8" s="89"/>
-      <c r="AM8" s="89"/>
-      <c r="AN8" s="89"/>
-      <c r="AO8" s="89"/>
-      <c r="AP8" s="89"/>
-      <c r="AQ8" s="89"/>
-      <c r="AR8" s="89"/>
-      <c r="AS8" s="89"/>
-      <c r="AT8" s="89"/>
-      <c r="AU8" s="89"/>
-      <c r="AV8" s="89"/>
-      <c r="AW8" s="89"/>
-      <c r="AX8" s="89"/>
-      <c r="AY8" s="90"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="57"/>
+      <c r="AL8" s="57"/>
+      <c r="AM8" s="57"/>
+      <c r="AN8" s="57"/>
+      <c r="AO8" s="57"/>
+      <c r="AP8" s="57"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="57"/>
+      <c r="AV8" s="57"/>
+      <c r="AW8" s="57"/>
+      <c r="AX8" s="57"/>
+      <c r="AY8" s="58"/>
       <c r="AZ8" s="21"/>
     </row>
     <row r="9" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
-      <c r="B9" s="38">
+      <c r="B9" s="32">
         <v>1</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41">
-        <v>73050</v>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35">
+        <v>42801</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="81" t="s">
-        <v>20</v>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="47" t="s">
+        <v>22</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="35" t="s">
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36"/>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="36"/>
-      <c r="AQ9" s="36"/>
-      <c r="AR9" s="36"/>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="36"/>
-      <c r="AU9" s="36"/>
-      <c r="AV9" s="36"/>
-      <c r="AW9" s="36"/>
-      <c r="AX9" s="36"/>
-      <c r="AY9" s="37"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="48"/>
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="48"/>
+      <c r="AM9" s="48"/>
+      <c r="AN9" s="48"/>
+      <c r="AO9" s="48"/>
+      <c r="AP9" s="48"/>
+      <c r="AQ9" s="48"/>
+      <c r="AR9" s="48"/>
+      <c r="AS9" s="48"/>
+      <c r="AT9" s="48"/>
+      <c r="AU9" s="48"/>
+      <c r="AV9" s="48"/>
+      <c r="AW9" s="48"/>
+      <c r="AX9" s="48"/>
+      <c r="AY9" s="49"/>
       <c r="AZ9" s="21"/>
     </row>
     <row r="10" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="36"/>
-      <c r="AM10" s="36"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="36"/>
-      <c r="AP10" s="36"/>
-      <c r="AQ10" s="36"/>
-      <c r="AR10" s="36"/>
-      <c r="AS10" s="36"/>
-      <c r="AT10" s="36"/>
-      <c r="AU10" s="36"/>
-      <c r="AV10" s="36"/>
-      <c r="AW10" s="36"/>
-      <c r="AX10" s="36"/>
-      <c r="AY10" s="37"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="48"/>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="48"/>
+      <c r="AP10" s="48"/>
+      <c r="AQ10" s="48"/>
+      <c r="AR10" s="48"/>
+      <c r="AS10" s="48"/>
+      <c r="AT10" s="48"/>
+      <c r="AU10" s="48"/>
+      <c r="AV10" s="48"/>
+      <c r="AW10" s="48"/>
+      <c r="AX10" s="48"/>
+      <c r="AY10" s="49"/>
       <c r="AZ10" s="21"/>
     </row>
     <row r="11" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="36"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="36"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="36"/>
-      <c r="AP11" s="36"/>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="36"/>
-      <c r="AS11" s="36"/>
-      <c r="AT11" s="36"/>
-      <c r="AU11" s="36"/>
-      <c r="AV11" s="36"/>
-      <c r="AW11" s="36"/>
-      <c r="AX11" s="36"/>
-      <c r="AY11" s="37"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="48"/>
+      <c r="AK11" s="48"/>
+      <c r="AL11" s="48"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="48"/>
+      <c r="AO11" s="48"/>
+      <c r="AP11" s="48"/>
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="48"/>
+      <c r="AS11" s="48"/>
+      <c r="AT11" s="48"/>
+      <c r="AU11" s="48"/>
+      <c r="AV11" s="48"/>
+      <c r="AW11" s="48"/>
+      <c r="AX11" s="48"/>
+      <c r="AY11" s="49"/>
       <c r="AZ11" s="21"/>
     </row>
     <row r="12" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="36"/>
-      <c r="AM12" s="36"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="36"/>
-      <c r="AQ12" s="36"/>
-      <c r="AR12" s="36"/>
-      <c r="AS12" s="36"/>
-      <c r="AT12" s="36"/>
-      <c r="AU12" s="36"/>
-      <c r="AV12" s="36"/>
-      <c r="AW12" s="36"/>
-      <c r="AX12" s="36"/>
-      <c r="AY12" s="37"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="48"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="48"/>
+      <c r="AK12" s="48"/>
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="48"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="48"/>
+      <c r="AP12" s="48"/>
+      <c r="AQ12" s="48"/>
+      <c r="AR12" s="48"/>
+      <c r="AS12" s="48"/>
+      <c r="AT12" s="48"/>
+      <c r="AU12" s="48"/>
+      <c r="AV12" s="48"/>
+      <c r="AW12" s="48"/>
+      <c r="AX12" s="48"/>
+      <c r="AY12" s="49"/>
       <c r="AZ12" s="21"/>
     </row>
     <row r="13" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="36"/>
-      <c r="AM13" s="36"/>
-      <c r="AN13" s="36"/>
-      <c r="AO13" s="36"/>
-      <c r="AP13" s="36"/>
-      <c r="AQ13" s="36"/>
-      <c r="AR13" s="36"/>
-      <c r="AS13" s="36"/>
-      <c r="AT13" s="36"/>
-      <c r="AU13" s="36"/>
-      <c r="AV13" s="36"/>
-      <c r="AW13" s="36"/>
-      <c r="AX13" s="36"/>
-      <c r="AY13" s="37"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="48"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="48"/>
+      <c r="AO13" s="48"/>
+      <c r="AP13" s="48"/>
+      <c r="AQ13" s="48"/>
+      <c r="AR13" s="48"/>
+      <c r="AS13" s="48"/>
+      <c r="AT13" s="48"/>
+      <c r="AU13" s="48"/>
+      <c r="AV13" s="48"/>
+      <c r="AW13" s="48"/>
+      <c r="AX13" s="48"/>
+      <c r="AY13" s="49"/>
       <c r="AZ13" s="21"/>
     </row>
     <row r="14" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="36"/>
-      <c r="AQ14" s="36"/>
-      <c r="AR14" s="36"/>
-      <c r="AS14" s="36"/>
-      <c r="AT14" s="36"/>
-      <c r="AU14" s="36"/>
-      <c r="AV14" s="36"/>
-      <c r="AW14" s="36"/>
-      <c r="AX14" s="36"/>
-      <c r="AY14" s="37"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="48"/>
+      <c r="AP14" s="48"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="48"/>
+      <c r="AS14" s="48"/>
+      <c r="AT14" s="48"/>
+      <c r="AU14" s="48"/>
+      <c r="AV14" s="48"/>
+      <c r="AW14" s="48"/>
+      <c r="AX14" s="48"/>
+      <c r="AY14" s="49"/>
       <c r="AZ14" s="21"/>
     </row>
     <row r="15" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="36"/>
-      <c r="AM15" s="36"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" s="36"/>
-      <c r="AP15" s="36"/>
-      <c r="AQ15" s="36"/>
-      <c r="AR15" s="36"/>
-      <c r="AS15" s="36"/>
-      <c r="AT15" s="36"/>
-      <c r="AU15" s="36"/>
-      <c r="AV15" s="36"/>
-      <c r="AW15" s="36"/>
-      <c r="AX15" s="36"/>
-      <c r="AY15" s="37"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="48"/>
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="48"/>
+      <c r="AO15" s="48"/>
+      <c r="AP15" s="48"/>
+      <c r="AQ15" s="48"/>
+      <c r="AR15" s="48"/>
+      <c r="AS15" s="48"/>
+      <c r="AT15" s="48"/>
+      <c r="AU15" s="48"/>
+      <c r="AV15" s="48"/>
+      <c r="AW15" s="48"/>
+      <c r="AX15" s="48"/>
+      <c r="AY15" s="49"/>
       <c r="AZ15" s="21"/>
     </row>
     <row r="16" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="36"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="36"/>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="36"/>
-      <c r="AL16" s="36"/>
-      <c r="AM16" s="36"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="36"/>
-      <c r="AP16" s="36"/>
-      <c r="AQ16" s="36"/>
-      <c r="AR16" s="36"/>
-      <c r="AS16" s="36"/>
-      <c r="AT16" s="36"/>
-      <c r="AU16" s="36"/>
-      <c r="AV16" s="36"/>
-      <c r="AW16" s="36"/>
-      <c r="AX16" s="36"/>
-      <c r="AY16" s="37"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="48"/>
+      <c r="AQ16" s="48"/>
+      <c r="AR16" s="48"/>
+      <c r="AS16" s="48"/>
+      <c r="AT16" s="48"/>
+      <c r="AU16" s="48"/>
+      <c r="AV16" s="48"/>
+      <c r="AW16" s="48"/>
+      <c r="AX16" s="48"/>
+      <c r="AY16" s="49"/>
       <c r="AZ16" s="21"/>
     </row>
     <row r="17" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="36"/>
-      <c r="AQ17" s="36"/>
-      <c r="AR17" s="36"/>
-      <c r="AS17" s="36"/>
-      <c r="AT17" s="36"/>
-      <c r="AU17" s="36"/>
-      <c r="AV17" s="36"/>
-      <c r="AW17" s="36"/>
-      <c r="AX17" s="36"/>
-      <c r="AY17" s="37"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="48"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="48"/>
+      <c r="AM17" s="48"/>
+      <c r="AN17" s="48"/>
+      <c r="AO17" s="48"/>
+      <c r="AP17" s="48"/>
+      <c r="AQ17" s="48"/>
+      <c r="AR17" s="48"/>
+      <c r="AS17" s="48"/>
+      <c r="AT17" s="48"/>
+      <c r="AU17" s="48"/>
+      <c r="AV17" s="48"/>
+      <c r="AW17" s="48"/>
+      <c r="AX17" s="48"/>
+      <c r="AY17" s="49"/>
       <c r="AZ17" s="21"/>
     </row>
     <row r="18" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="36"/>
-      <c r="AN18" s="36"/>
-      <c r="AO18" s="36"/>
-      <c r="AP18" s="36"/>
-      <c r="AQ18" s="36"/>
-      <c r="AR18" s="36"/>
-      <c r="AS18" s="36"/>
-      <c r="AT18" s="36"/>
-      <c r="AU18" s="36"/>
-      <c r="AV18" s="36"/>
-      <c r="AW18" s="36"/>
-      <c r="AX18" s="36"/>
-      <c r="AY18" s="37"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="48"/>
+      <c r="AO18" s="48"/>
+      <c r="AP18" s="48"/>
+      <c r="AQ18" s="48"/>
+      <c r="AR18" s="48"/>
+      <c r="AS18" s="48"/>
+      <c r="AT18" s="48"/>
+      <c r="AU18" s="48"/>
+      <c r="AV18" s="48"/>
+      <c r="AW18" s="48"/>
+      <c r="AX18" s="48"/>
+      <c r="AY18" s="49"/>
       <c r="AZ18" s="21"/>
     </row>
     <row r="19" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="36"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="36"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="36"/>
-      <c r="AP19" s="36"/>
-      <c r="AQ19" s="36"/>
-      <c r="AR19" s="36"/>
-      <c r="AS19" s="36"/>
-      <c r="AT19" s="36"/>
-      <c r="AU19" s="36"/>
-      <c r="AV19" s="36"/>
-      <c r="AW19" s="36"/>
-      <c r="AX19" s="36"/>
-      <c r="AY19" s="37"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="48"/>
+      <c r="AJ19" s="48"/>
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="48"/>
+      <c r="AO19" s="48"/>
+      <c r="AP19" s="48"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="48"/>
+      <c r="AS19" s="48"/>
+      <c r="AT19" s="48"/>
+      <c r="AU19" s="48"/>
+      <c r="AV19" s="48"/>
+      <c r="AW19" s="48"/>
+      <c r="AX19" s="48"/>
+      <c r="AY19" s="49"/>
       <c r="AZ19" s="21"/>
     </row>
     <row r="20" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="36"/>
-      <c r="AM20" s="36"/>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="36"/>
-      <c r="AP20" s="36"/>
-      <c r="AQ20" s="36"/>
-      <c r="AR20" s="36"/>
-      <c r="AS20" s="36"/>
-      <c r="AT20" s="36"/>
-      <c r="AU20" s="36"/>
-      <c r="AV20" s="36"/>
-      <c r="AW20" s="36"/>
-      <c r="AX20" s="36"/>
-      <c r="AY20" s="37"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="48"/>
+      <c r="AP20" s="48"/>
+      <c r="AQ20" s="48"/>
+      <c r="AR20" s="48"/>
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
+      <c r="AU20" s="48"/>
+      <c r="AV20" s="48"/>
+      <c r="AW20" s="48"/>
+      <c r="AX20" s="48"/>
+      <c r="AY20" s="49"/>
       <c r="AZ20" s="21"/>
     </row>
     <row r="21" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
-      <c r="AI21" s="36"/>
-      <c r="AJ21" s="36"/>
-      <c r="AK21" s="36"/>
-      <c r="AL21" s="36"/>
-      <c r="AM21" s="36"/>
-      <c r="AN21" s="36"/>
-      <c r="AO21" s="36"/>
-      <c r="AP21" s="36"/>
-      <c r="AQ21" s="36"/>
-      <c r="AR21" s="36"/>
-      <c r="AS21" s="36"/>
-      <c r="AT21" s="36"/>
-      <c r="AU21" s="36"/>
-      <c r="AV21" s="36"/>
-      <c r="AW21" s="36"/>
-      <c r="AX21" s="36"/>
-      <c r="AY21" s="37"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="48"/>
+      <c r="AO21" s="48"/>
+      <c r="AP21" s="48"/>
+      <c r="AQ21" s="48"/>
+      <c r="AR21" s="48"/>
+      <c r="AS21" s="48"/>
+      <c r="AT21" s="48"/>
+      <c r="AU21" s="48"/>
+      <c r="AV21" s="48"/>
+      <c r="AW21" s="48"/>
+      <c r="AX21" s="48"/>
+      <c r="AY21" s="49"/>
       <c r="AZ21" s="21"/>
     </row>
     <row r="22" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="36"/>
-      <c r="AL22" s="36"/>
-      <c r="AM22" s="36"/>
-      <c r="AN22" s="36"/>
-      <c r="AO22" s="36"/>
-      <c r="AP22" s="36"/>
-      <c r="AQ22" s="36"/>
-      <c r="AR22" s="36"/>
-      <c r="AS22" s="36"/>
-      <c r="AT22" s="36"/>
-      <c r="AU22" s="36"/>
-      <c r="AV22" s="36"/>
-      <c r="AW22" s="36"/>
-      <c r="AX22" s="36"/>
-      <c r="AY22" s="37"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="48"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="48"/>
+      <c r="AK22" s="48"/>
+      <c r="AL22" s="48"/>
+      <c r="AM22" s="48"/>
+      <c r="AN22" s="48"/>
+      <c r="AO22" s="48"/>
+      <c r="AP22" s="48"/>
+      <c r="AQ22" s="48"/>
+      <c r="AR22" s="48"/>
+      <c r="AS22" s="48"/>
+      <c r="AT22" s="48"/>
+      <c r="AU22" s="48"/>
+      <c r="AV22" s="48"/>
+      <c r="AW22" s="48"/>
+      <c r="AX22" s="48"/>
+      <c r="AY22" s="49"/>
       <c r="AZ22" s="21"/>
     </row>
     <row r="23" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="36"/>
-      <c r="AK23" s="36"/>
-      <c r="AL23" s="36"/>
-      <c r="AM23" s="36"/>
-      <c r="AN23" s="36"/>
-      <c r="AO23" s="36"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="36"/>
-      <c r="AR23" s="36"/>
-      <c r="AS23" s="36"/>
-      <c r="AT23" s="36"/>
-      <c r="AU23" s="36"/>
-      <c r="AV23" s="36"/>
-      <c r="AW23" s="36"/>
-      <c r="AX23" s="36"/>
-      <c r="AY23" s="37"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="48"/>
+      <c r="AJ23" s="48"/>
+      <c r="AK23" s="48"/>
+      <c r="AL23" s="48"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="48"/>
+      <c r="AO23" s="48"/>
+      <c r="AP23" s="48"/>
+      <c r="AQ23" s="48"/>
+      <c r="AR23" s="48"/>
+      <c r="AS23" s="48"/>
+      <c r="AT23" s="48"/>
+      <c r="AU23" s="48"/>
+      <c r="AV23" s="48"/>
+      <c r="AW23" s="48"/>
+      <c r="AX23" s="48"/>
+      <c r="AY23" s="49"/>
       <c r="AZ23" s="21"/>
     </row>
     <row r="24" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="36"/>
-      <c r="AL24" s="36"/>
-      <c r="AM24" s="36"/>
-      <c r="AN24" s="36"/>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="36"/>
-      <c r="AQ24" s="36"/>
-      <c r="AR24" s="36"/>
-      <c r="AS24" s="36"/>
-      <c r="AT24" s="36"/>
-      <c r="AU24" s="36"/>
-      <c r="AV24" s="36"/>
-      <c r="AW24" s="36"/>
-      <c r="AX24" s="36"/>
-      <c r="AY24" s="37"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="48"/>
+      <c r="AF24" s="48"/>
+      <c r="AG24" s="48"/>
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="48"/>
+      <c r="AJ24" s="48"/>
+      <c r="AK24" s="48"/>
+      <c r="AL24" s="48"/>
+      <c r="AM24" s="48"/>
+      <c r="AN24" s="48"/>
+      <c r="AO24" s="48"/>
+      <c r="AP24" s="48"/>
+      <c r="AQ24" s="48"/>
+      <c r="AR24" s="48"/>
+      <c r="AS24" s="48"/>
+      <c r="AT24" s="48"/>
+      <c r="AU24" s="48"/>
+      <c r="AV24" s="48"/>
+      <c r="AW24" s="48"/>
+      <c r="AX24" s="48"/>
+      <c r="AY24" s="49"/>
       <c r="AZ24" s="21"/>
     </row>
     <row r="25" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="36"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="36"/>
-      <c r="AO25" s="36"/>
-      <c r="AP25" s="36"/>
-      <c r="AQ25" s="36"/>
-      <c r="AR25" s="36"/>
-      <c r="AS25" s="36"/>
-      <c r="AT25" s="36"/>
-      <c r="AU25" s="36"/>
-      <c r="AV25" s="36"/>
-      <c r="AW25" s="36"/>
-      <c r="AX25" s="36"/>
-      <c r="AY25" s="37"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="48"/>
+      <c r="AL25" s="48"/>
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="48"/>
+      <c r="AO25" s="48"/>
+      <c r="AP25" s="48"/>
+      <c r="AQ25" s="48"/>
+      <c r="AR25" s="48"/>
+      <c r="AS25" s="48"/>
+      <c r="AT25" s="48"/>
+      <c r="AU25" s="48"/>
+      <c r="AV25" s="48"/>
+      <c r="AW25" s="48"/>
+      <c r="AX25" s="48"/>
+      <c r="AY25" s="49"/>
       <c r="AZ25" s="21"/>
     </row>
     <row r="26" spans="1:52" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="54"/>
-      <c r="AG26" s="54"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="54"/>
-      <c r="AJ26" s="54"/>
-      <c r="AK26" s="54"/>
-      <c r="AL26" s="54"/>
-      <c r="AM26" s="54"/>
-      <c r="AN26" s="54"/>
-      <c r="AO26" s="54"/>
-      <c r="AP26" s="54"/>
-      <c r="AQ26" s="54"/>
-      <c r="AR26" s="54"/>
-      <c r="AS26" s="54"/>
-      <c r="AT26" s="54"/>
-      <c r="AU26" s="54"/>
-      <c r="AV26" s="54"/>
-      <c r="AW26" s="54"/>
-      <c r="AX26" s="54"/>
-      <c r="AY26" s="55"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="90"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="90"/>
+      <c r="AB26" s="90"/>
+      <c r="AC26" s="90"/>
+      <c r="AD26" s="90"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="90"/>
+      <c r="AG26" s="90"/>
+      <c r="AH26" s="90"/>
+      <c r="AI26" s="90"/>
+      <c r="AJ26" s="90"/>
+      <c r="AK26" s="90"/>
+      <c r="AL26" s="90"/>
+      <c r="AM26" s="90"/>
+      <c r="AN26" s="90"/>
+      <c r="AO26" s="90"/>
+      <c r="AP26" s="90"/>
+      <c r="AQ26" s="90"/>
+      <c r="AR26" s="90"/>
+      <c r="AS26" s="90"/>
+      <c r="AT26" s="90"/>
+      <c r="AU26" s="90"/>
+      <c r="AV26" s="90"/>
+      <c r="AW26" s="90"/>
+      <c r="AX26" s="90"/>
+      <c r="AY26" s="91"/>
       <c r="AZ26" s="15"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2880,20 +4092,73 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:AY22"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="Q25:AY25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:AY10"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:AY26"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:AY23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="Q24:AY24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:AY18"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:AY20"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:AY21"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AY19"/>
+    <mergeCell ref="Q11:AY11"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AY13"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:AY14"/>
+    <mergeCell ref="Q12:AY12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AY17"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:AY15"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:AY16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:M3"/>
     <mergeCell ref="B7:D7"/>
@@ -2910,73 +4175,20 @@
     <mergeCell ref="Q8:AY8"/>
     <mergeCell ref="Q9:AY9"/>
     <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:AY17"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:AY15"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:AY16"/>
-    <mergeCell ref="Q11:AY11"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AY13"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:AY14"/>
-    <mergeCell ref="Q12:AY12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:AY18"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="Q20:AY20"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:AY21"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:AY19"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="Q10:AY10"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q26:AY26"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:AY23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="Q24:AY24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:AY22"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="Q25:AY25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -2996,7 +4208,7 @@
   </sheetPr>
   <dimension ref="A1:AZ54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4:AL4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -3008,201 +4220,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="str">
+      <c r="A1" s="72" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>システム構成図</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="56" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="72" t="str">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="76" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="56" t="s">
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56" t="s">
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56" t="s">
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="56"/>
+      <c r="AY1" s="61"/>
       <c r="AZ1" s="92"/>
     </row>
     <row r="2" spans="1:52" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="58" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="59" t="str">
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="64" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="60">
-        <v>73050</v>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="65">
+        <v>42801</v>
       </c>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="62" t="s">
-        <v>21</v>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="67" t="s">
+        <v>22</v>
       </c>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="59"/>
-      <c r="AZ2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="68"/>
     </row>
     <row r="3" spans="1:52" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="63" t="str">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="74" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="63" t="str">
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40" t="str">
         <f>設定情報!$C$5</f>
         <v>システム構成図</v>
       </c>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="67"/>
-      <c r="AT3" s="67"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="65"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="69"/>
     </row>
     <row r="4" spans="1:52" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
@@ -3261,7 +4473,7 @@
     <row r="5" spans="1:52" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -5962,6 +7174,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="AG2:AL3"/>
@@ -5975,10 +7191,6 @@
     <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="S1:AF1"/>
     <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -5987,6 +7199,7 @@
     <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
     <oddFooter>&amp;RAll Rights Reserved, Copyright © ○○○○○株式会社 2016</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6038,7 +7251,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
